--- a/Question_Sets/Role-specific skills/SEO Copywriting.xlsx
+++ b/Question_Sets/Role-specific skills/SEO Copywriting.xlsx
@@ -16,23 +16,72 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'A client approaches you, asking for advice on how to optimize their website for transactional search queries. They want to understand how to target users with transactional search intent, such as a customer who types “buy running shoes online” into a search engine.How would you optimize the client’s website to rank for this query?', 'ques_type': 2, 'options': ['Create a landing page that compares different running shoe brands and prices.', 'Ensure that your website has clear product pages for running shoes, with detailed descriptions, prices, and easy checkout options.', 'Create a blog post or article that provides information about buying running shoes online.', 'Ensure that your website has a clear navigation menu and easy-to-find links to your running shoe pages.'], 'score': 'Ensure that your website has clear product pages for running shoes, with detailed descriptions, prices, and easy checkout options.'}, {'title': 'You work on an SEO copywriting team for a large corporation. Your team’s new manager introduces new guidelines around meta keywords, recommending that you avoid using them because they no longer have much of an impact on SEO. They ask the team for reactions, inviting discussion and even disagreement.Which of the following is the most appropriate response?', 'ques_type': 2, 'options': ['Propose that you use meta descriptions to replace meta keywords since they provide more SEO value.', 'Explain that meta keywords may not be used by all search engines but still provide some SEO value.', 'Agree that meta keywords may not have much of an impact on SEO but suggest keeping them to aid in navigation. ', 'Point out that meta keywords do not have an impact for small businesses but still have an impact for larger corporations like yours.'], 'score': 'Propose that you use meta descriptions to replace meta keywords since they provide more SEO value.'}, {'title': 'You work as an SEO specialist for a marketing firm. For your latest project, you need to create a strategy to help a client’s website improve its backlink profile. Which of the following approaches should you include in your strategy?', 'ques_type': 15, 'options': ['Join a paid link exchange scheme on behalf of the client.', 'Create content that’s rich in expert round-ups and interviews/quotes.', 'Engage in link reclamation.', 'Make sure that the sites providing backlinks always use exactly the same anchor text for every link.', 'Pitch guest posts to industry publications.', 'Leverage services like HARO.'], 'score': ['Create content that’s rich in expert round-ups and interviews/quotes.', 'Engage in link reclamation.', 'Pitch guest posts to industry publications.', 'Leverage services like HARO.']}, {'title': 'As an SEO consultant, you have just created a competitive content analysis for your client. You will be presenting the results of this analysis at a company meeting. Most people attending the meeting do not understand the benefits of this type of analysis, and you know that some feel that your work was unnecessary.What benefits of a competitive content analysis should you share during the meeting?', 'ques_type': 15, 'options': ['It provides insight about a competitor’s content strategy.', 'It helps define product competitors.', 'It helps define content competitors.', 'It provides ideas for improving your existing content.', 'It reveals technical glitches on competitor sites that you can exploit.'], 'score': ['It provides insight about a competitor’s content strategy.', 'It helps define content competitors.', 'It provides ideas for improving your existing content.']}]</t>
+    <t>questions = [
+    {
+        "title": "A client approaches you, asking for advice on how to optimize their website for transactional search queries. They want to understand how to target users with transactional search intent, such as a customer who types \u201cbuy running shoes online\u201d into a search engine.How would you optimize the client\u2019s website to rank for this query?",
+        "ques_type": 2,
+        "options": [
+            "Create a landing page that compares different running shoe brands and prices.",
+            "Ensure that your website has clear product pages for running shoes, with detailed descriptions, prices, and easy checkout options.",
+            "Create a blog post or article that provides information about buying running shoes online.",
+            "Ensure that your website has a clear navigation menu and easy-to-find links to your running shoe pages."
+        ],
+        "score": "Ensure that your website has clear product pages for running shoes, with detailed descriptions, prices, and easy checkout options."
+    },
+    {
+        "title": "You work on an SEO copywriting team for a large corporation. Your team\u2019s new manager introduces new guidelines around meta keywords, recommending that you avoid using them because they no longer have much of an impact on SEO. They ask the team for reactions, inviting discussion and even disagreement.Which of the following is the most appropriate response?",
+        "ques_type": 2,
+        "options": [
+            "Propose that you use meta descriptions to replace meta keywords since they provide more SEO value.",
+            "Explain that meta keywords may not be used by all search engines but still provide some SEO value.",
+            "Agree that meta keywords may not have much of an impact on SEO but suggest keeping them to aid in navigation. ",
+            "Point out that meta keywords do not have an impact for small businesses but still have an impact for larger corporations like yours."
+        ],
+        "score": "Propose that you use meta descriptions to replace meta keywords since they provide more SEO value."
+    },
+    {
+        "title": "You work as an SEO specialist for a marketing firm. For your latest project, you need to create a strategy to help a client\u2019s website improve its backlink profile. Which of the following approaches should you include in your strategy?",
+        "ques_type": 15,
+        "options": [
+            "Join a paid link exchange scheme on behalf of the client.",
+            "Create content that\u2019s rich in expert round-ups and interviews/quotes.",
+            "Engage in link reclamation.",
+            "Make sure that the sites providing backlinks always use exactly the same anchor text for every link.",
+            "Pitch guest posts to industry publications.",
+            "Leverage services like HARO."
+        ],
+        "score": [
+            "Create content that\u2019s rich in expert round-ups and interviews/quotes.",
+            "Engage in link reclamation.",
+            "Pitch guest posts to industry publications.",
+            "Leverage services like HARO."
+        ]
+    },
+    {
+        "title": "As an SEO consultant, you have just created a competitive content analysis for your client. You will be presenting the results of this analysis at a company meeting. Most people attending the meeting do not understand the benefits of this type of analysis, and you know that some feel that your work was unnecessary.What benefits of a competitive content analysis should you share during the meeting?",
+        "ques_type": 15,
+        "options": [
+            "It provides insight about a competitor\u2019s content strategy.",
+            "It helps define product competitors.",
+            "It helps define content competitors.",
+            "It provides ideas for improving your existing content.",
+            "It reveals technical glitches on competitor sites that you can exploit."
+        ],
+        "score": [
+            "It provides insight about a competitor\u2019s content strategy.",
+            "It helps define content competitors.",
+            "It provides ideas for improving your existing content."
+        ]
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +105,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +405,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
